--- a/results/sensitivity/penincillium_V.xlsx
+++ b/results/sensitivity/penincillium_V.xlsx
@@ -55,7 +55,7 @@
     <t>market for sulfuric acid</t>
   </si>
   <si>
-    <t>tap water production, underground water without treatment</t>
+    <t>market for water, deionised</t>
   </si>
   <si>
     <t>manufacturing of raw penicillium V</t>
@@ -67,55 +67,55 @@
     <t>treatment of biowaste, municipal incineration</t>
   </si>
   <si>
-    <t>0.6003256539089034</t>
-  </si>
-  <si>
-    <t>0.7724279519333835</t>
-  </si>
-  <si>
-    <t>1.5930136789018279</t>
-  </si>
-  <si>
-    <t>20.066089185847225</t>
-  </si>
-  <si>
-    <t>15.486649105028771</t>
-  </si>
-  <si>
-    <t>1.9845455530995986</t>
-  </si>
-  <si>
-    <t>4.036532511639577</t>
-  </si>
-  <si>
-    <t>0.2764644475144227</t>
-  </si>
-  <si>
-    <t>4.9380141203224515</t>
-  </si>
-  <si>
-    <t>1.2009940751862385</t>
-  </si>
-  <si>
-    <t>0.2861877141777404</t>
-  </si>
-  <si>
-    <t>0.002426815276735262</t>
-  </si>
-  <si>
-    <t>0.005633903835816749</t>
-  </si>
-  <si>
-    <t>2.6418776407478224</t>
-  </si>
-  <si>
-    <t>0.003793494924426209</t>
-  </si>
-  <si>
-    <t>0.08667283075160463</t>
-  </si>
-  <si>
-    <t>-0.13857623878491143</t>
+    <t>0.6003256477802146</t>
+  </si>
+  <si>
+    <t>0.7724279564083077</t>
+  </si>
+  <si>
+    <t>1.5930136790871732</t>
+  </si>
+  <si>
+    <t>20.066089162716672</t>
+  </si>
+  <si>
+    <t>15.486648929209272</t>
+  </si>
+  <si>
+    <t>1.9845455451204057</t>
+  </si>
+  <si>
+    <t>4.036532461605098</t>
+  </si>
+  <si>
+    <t>0.2766790775190764</t>
+  </si>
+  <si>
+    <t>4.938014069956567</t>
+  </si>
+  <si>
+    <t>1.2369982109752868</t>
+  </si>
+  <si>
+    <t>0.2861877170158452</t>
+  </si>
+  <si>
+    <t>0.00242681562268371</t>
+  </si>
+  <si>
+    <t>0.015380422855428195</t>
+  </si>
+  <si>
+    <t>2.6431624558840268</t>
+  </si>
+  <si>
+    <t>0.0029706145496632198</t>
+  </si>
+  <si>
+    <t>0.08667283145557278</t>
+  </si>
+  <si>
+    <t>-0.14273056337677043</t>
   </si>
 </sst>
 </file>

--- a/results/sensitivity/penincillium_V.xlsx
+++ b/results/sensitivity/penincillium_V.xlsx
@@ -28,7 +28,7 @@
     <t>market for butyl acetate</t>
   </si>
   <si>
-    <t>market for electricity, low voltage</t>
+    <t>market group for electricity, low voltage</t>
   </si>
   <si>
     <t>glucose production</t>
@@ -67,55 +67,55 @@
     <t>treatment of biowaste, municipal incineration</t>
   </si>
   <si>
-    <t>0.6003256477802146</t>
-  </si>
-  <si>
-    <t>0.7724279564083077</t>
-  </si>
-  <si>
-    <t>1.5930136790871732</t>
-  </si>
-  <si>
-    <t>20.066089162716672</t>
-  </si>
-  <si>
-    <t>15.486648929209272</t>
-  </si>
-  <si>
-    <t>1.9845455451204057</t>
-  </si>
-  <si>
-    <t>4.036532461605098</t>
-  </si>
-  <si>
-    <t>0.2766790775190764</t>
-  </si>
-  <si>
-    <t>4.938014069956567</t>
-  </si>
-  <si>
-    <t>1.2369982109752868</t>
-  </si>
-  <si>
-    <t>0.2861877170158452</t>
-  </si>
-  <si>
-    <t>0.00242681562268371</t>
-  </si>
-  <si>
-    <t>0.015380422855428195</t>
-  </si>
-  <si>
-    <t>2.6431624558840268</t>
-  </si>
-  <si>
-    <t>0.0029706145496632198</t>
-  </si>
-  <si>
-    <t>0.08667283145557278</t>
-  </si>
-  <si>
-    <t>-0.14273056337677043</t>
+    <t>0.6003256557974975</t>
+  </si>
+  <si>
+    <t>0.7724279569836534</t>
+  </si>
+  <si>
+    <t>1.5930136661490186</t>
+  </si>
+  <si>
+    <t>15.910408342898313</t>
+  </si>
+  <si>
+    <t>15.48664901692736</t>
+  </si>
+  <si>
+    <t>1.984545550413917</t>
+  </si>
+  <si>
+    <t>4.036532437006933</t>
+  </si>
+  <si>
+    <t>0.2766790808148134</t>
+  </si>
+  <si>
+    <t>4.938014071436373</t>
+  </si>
+  <si>
+    <t>1.2369982059045173</t>
+  </si>
+  <si>
+    <t>0.2861877148894056</t>
+  </si>
+  <si>
+    <t>0.002426815732611057</t>
+  </si>
+  <si>
+    <t>0.01538042279581438</t>
+  </si>
+  <si>
+    <t>2.47225783771006</t>
+  </si>
+  <si>
+    <t>0.002970614600214056</t>
+  </si>
+  <si>
+    <t>0.08667283050730451</t>
+  </si>
+  <si>
+    <t>-0.14273056182503313</t>
   </si>
 </sst>
 </file>

--- a/results/sensitivity/penincillium_V.xlsx
+++ b/results/sensitivity/penincillium_V.xlsx
@@ -67,55 +67,55 @@
     <t>treatment of biowaste, municipal incineration</t>
   </si>
   <si>
-    <t>0.6003256557974975</t>
-  </si>
-  <si>
-    <t>0.7724279569836534</t>
-  </si>
-  <si>
-    <t>1.5930136661490186</t>
-  </si>
-  <si>
-    <t>15.910408342898313</t>
-  </si>
-  <si>
-    <t>15.48664901692736</t>
-  </si>
-  <si>
-    <t>1.984545550413917</t>
-  </si>
-  <si>
-    <t>4.036532437006933</t>
-  </si>
-  <si>
-    <t>0.2766790808148134</t>
-  </si>
-  <si>
-    <t>4.938014071436373</t>
-  </si>
-  <si>
-    <t>1.2369982059045173</t>
-  </si>
-  <si>
-    <t>0.2861877148894056</t>
-  </si>
-  <si>
-    <t>0.002426815732611057</t>
-  </si>
-  <si>
-    <t>0.01538042279581438</t>
-  </si>
-  <si>
-    <t>2.47225783771006</t>
-  </si>
-  <si>
-    <t>0.002970614600214056</t>
-  </si>
-  <si>
-    <t>0.08667283050730451</t>
-  </si>
-  <si>
-    <t>-0.14273056182503313</t>
+    <t>0.24142483326739886</t>
+  </si>
+  <si>
+    <t>0.2710021609178826</t>
+  </si>
+  <si>
+    <t>0.543305750488392</t>
+  </si>
+  <si>
+    <t>21.518237420327893</t>
+  </si>
+  <si>
+    <t>5.678293451128978</t>
+  </si>
+  <si>
+    <t>0.7594787094692462</t>
+  </si>
+  <si>
+    <t>2.961476632062357</t>
+  </si>
+  <si>
+    <t>0.09234486622458121</t>
+  </si>
+  <si>
+    <t>1.6460046913927422</t>
+  </si>
+  <si>
+    <t>0.40967480325287453</t>
+  </si>
+  <si>
+    <t>0.09539590550281857</t>
+  </si>
+  <si>
+    <t>0.001177850704308144</t>
+  </si>
+  <si>
+    <t>0.005566039325119276</t>
+  </si>
+  <si>
+    <t>1.5853512655348536</t>
+  </si>
+  <si>
+    <t>0.0012644982639114077</t>
+  </si>
+  <si>
+    <t>0.028890946155835838</t>
+  </si>
+  <si>
+    <t>-0.04727016882580916</t>
   </si>
 </sst>
 </file>
